--- a/datos/riesgo-datos.xlsx
+++ b/datos/riesgo-datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\dashboard-financiero\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\regresion-analisys-predicted\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16512" windowHeight="5952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16272" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,33 +593,47 @@
         <v>45639</v>
       </c>
       <c r="B13" s="3">
-        <v>3.6185688816217171E-2</v>
+        <v>7.4730821071529299E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>1.7040132681951207E-2</v>
+        <v>4.6955098168393286E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>8.1284553252937222E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3091456564472389E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>45670</v>
       </c>
       <c r="B14" s="3">
-        <v>0.65376689613605254</v>
+        <v>6.2489379405292408E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>0.62725448121467864</v>
+        <v>6.0291913209429462E-2</v>
       </c>
       <c r="D14" s="3">
-        <v>0.285953377849749</v>
+        <v>2.7301263152702267E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="4">
+        <v>45701</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.858630462881415E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.41946244709794E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.5885432933623746E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
